--- a/Schematic/ME0_ASIAGO_BOM.xlsx
+++ b/Schematic/ME0_ASIAGO_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Item Number</t>
   </si>
@@ -206,7 +206,7 @@
     <t>RES SMD 4.7K OHM 5% 1/10W 0402</t>
   </si>
   <si>
-    <t>R1 R2 R27 R28 R73 R74 R75 R76 R86 R110 R118 R122</t>
+    <t>R1 R2 R27 R28 R73 R74 R75 R76 R86 R122</t>
   </si>
   <si>
     <t>Panasonic</t>
@@ -245,6 +245,9 @@
     <t>R68</t>
   </si>
   <si>
+    <t>R110</t>
+  </si>
+  <si>
     <t>0R</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
     <t>R117 R137</t>
   </si>
   <si>
+    <t>R118 R131 R132 R133 R134 R135 R138</t>
+  </si>
+  <si>
     <t>999G</t>
   </si>
   <si>
@@ -288,9 +294,6 @@
   </si>
   <si>
     <t>RC0402FR-071RL</t>
-  </si>
-  <si>
-    <t>R131 R132 R133 R134 R135</t>
   </si>
   <si>
     <t>33R</t>
@@ -655,11 +658,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -913,7 +914,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>58</v>
@@ -1128,22 +1129,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,22 +1152,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,16 +1175,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>37</v>
@@ -1200,19 +1201,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,22 +1221,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,22 +1244,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,22 +1267,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,19 +1293,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,22 +1313,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,22 +1336,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,22 +1359,45 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
